--- a/argoslabs/data/exceladv3/tests/output.xlsx
+++ b/argoslabs/data/exceladv3/tests/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="&quot;₩&quot;#,##0" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="&quot;₩&quot;#,##0"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -49,23 +49,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="표준" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -887,7 +887,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13209,7 +13209,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13227,7 +13227,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="3" min="3" style="6" width="10.5703125"/>
+    <col width="10.5703125" customWidth="1" style="6" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13294,7 +13294,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13360,15 +13360,15 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:A9"/>
-    <mergeCell ref="B1:B5"/>
-    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A1:A9"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B1:B5"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -14033,6 +14033,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>